--- a/saint_peters/stats.xlsx
+++ b/saint_peters/stats.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitch/Documents/GitHub/funsies/saint_peters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitch\Documents\GitHub\funsies\saint_peters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C1C4C-13A0-ED4D-982F-A37A64F38CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09A1867-A988-412B-B472-6C3FADCCB1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17340" xr2:uid="{64770F3B-3883-C249-AB2D-8CDF73CA3267}"/>
+    <workbookView xWindow="4500" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{64770F3B-3883-C249-AB2D-8CDF73CA3267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,9 +439,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -452,18 +452,6 @@
     <font>
       <sz val="9.4"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.4"/>
-      <color rgb="FFCC0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.4"/>
-      <color rgb="FF008800"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -502,17 +490,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,42 +819,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F59701F-0F4F-6943-9FAF-B163EEEEFF4F}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <f>DATEVALUE(Sheet2!C3)</f>
         <v>44513</v>
       </c>
@@ -891,8 +877,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <f>DATEVALUE(Sheet2!C4)</f>
         <v>44523</v>
       </c>
@@ -915,248 +901,729 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <f>DATEVALUE(Sheet2!C5)</f>
         <v>44527</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>82.3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>0.44600000000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>25.8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>16.2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>0.25</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <f>DATEVALUE(Sheet2!C6)</f>
         <v>44533</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>63.9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0.50800000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>9.6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>27.3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>0.186</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>110.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <f>DATEVALUE(Sheet2!C7)</f>
         <v>44535</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>70.599999999999994</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0.49</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>20.7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>7.4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>81.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <f>DATEVALUE(Sheet2!C8)</f>
         <v>44538</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="B7">
+        <v>70.7</v>
+      </c>
+      <c r="C7">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D7">
+        <v>18.2</v>
+      </c>
+      <c r="E7">
+        <v>35.1</v>
+      </c>
+      <c r="F7">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="G7">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <f>DATEVALUE(Sheet2!C9)</f>
         <v>44542</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="B8">
+        <v>63.1</v>
+      </c>
+      <c r="C8">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>55.6</v>
+      </c>
+      <c r="F8">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G8">
+        <v>138.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <f>DATEVALUE(Sheet2!C10)</f>
         <v>44548</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="B9">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C9">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D9">
+        <v>22.6</v>
+      </c>
+      <c r="E9">
+        <v>27.6</v>
+      </c>
+      <c r="F9">
+        <v>0.182</v>
+      </c>
+      <c r="G9">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <f>DATEVALUE(Sheet2!C11)</f>
         <v>44575</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="B10">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="C10">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D10">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E10">
+        <v>41.5</v>
+      </c>
+      <c r="F10">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G10">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <f>DATEVALUE(Sheet2!C12)</f>
         <v>44577</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="B11">
+        <v>67.2</v>
+      </c>
+      <c r="C11">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D11">
+        <v>19.8</v>
+      </c>
+      <c r="E11">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>0.185</v>
+      </c>
+      <c r="G11">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <f>DATEVALUE(Sheet2!C13)</f>
         <v>44579</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="B12">
+        <v>69.3</v>
+      </c>
+      <c r="C12">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D12">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E12">
+        <v>29.3</v>
+      </c>
+      <c r="F12">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="G12">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <f>DATEVALUE(Sheet2!C14)</f>
         <v>44582</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="B13">
+        <v>61.6</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>15.3</v>
+      </c>
+      <c r="E13">
+        <v>30.3</v>
+      </c>
+      <c r="F13">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G13">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <f>DATEVALUE(Sheet2!C15)</f>
         <v>44584</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="B14">
+        <v>63.7</v>
+      </c>
+      <c r="C14">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D14">
+        <v>14.2</v>
+      </c>
+      <c r="E14">
+        <v>41.9</v>
+      </c>
+      <c r="F14">
+        <v>0.246</v>
+      </c>
+      <c r="G14">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <f>DATEVALUE(Sheet2!C16)</f>
         <v>44587</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="B15">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C15">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D15">
+        <v>18.2</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="G15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <f>DATEVALUE(Sheet2!C17)</f>
         <v>44589</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="B16">
+        <v>61.9</v>
+      </c>
+      <c r="C16">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D16">
+        <v>16.5</v>
+      </c>
+      <c r="E16">
+        <v>43.5</v>
+      </c>
+      <c r="F16">
+        <v>0.161</v>
+      </c>
+      <c r="G16">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <f>DATEVALUE(Sheet2!C18)</f>
         <v>44591</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="B17">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C17">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D17">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E17">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G17">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <f>DATEVALUE(Sheet2!C19)</f>
         <v>44596</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="B18">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="C18">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D18">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G18">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <f>DATEVALUE(Sheet2!C20)</f>
         <v>44598</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="B19">
+        <v>61.7</v>
+      </c>
+      <c r="C19">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D19">
+        <v>21.2</v>
+      </c>
+      <c r="E19">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F19">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G19">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <f>DATEVALUE(Sheet2!C21)</f>
         <v>44603</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="B20">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="C20">
+        <v>0.375</v>
+      </c>
+      <c r="D20">
+        <v>22.6</v>
+      </c>
+      <c r="E20">
+        <v>18.8</v>
+      </c>
+      <c r="F20">
+        <v>0.192</v>
+      </c>
+      <c r="G20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <f>DATEVALUE(Sheet2!C22)</f>
         <v>44607</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="B21">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="C21">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D21">
+        <v>14.4</v>
+      </c>
+      <c r="E21">
+        <v>25.7</v>
+      </c>
+      <c r="F21">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G21">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <f>DATEVALUE(Sheet2!C23)</f>
         <v>44610</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="B22">
+        <v>66.5</v>
+      </c>
+      <c r="C22">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D22">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E22">
+        <v>37.9</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="G22">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <f>DATEVALUE(Sheet2!C24)</f>
         <v>44612</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="B23">
+        <v>68.5</v>
+      </c>
+      <c r="C23">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D23">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E23">
+        <v>37.5</v>
+      </c>
+      <c r="F23">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G23">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <f>DATEVALUE(Sheet2!C25)</f>
         <v>44617</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="B24">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C24">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D24">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E24">
+        <v>46.4</v>
+      </c>
+      <c r="F24">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G24">
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <f>DATEVALUE(Sheet2!C26)</f>
         <v>44619</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="B25">
+        <v>61.2</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>11.5</v>
+      </c>
+      <c r="E25">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F25">
+        <v>0.105</v>
+      </c>
+      <c r="G25">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <f>DATEVALUE(Sheet2!C27)</f>
         <v>44621</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="B26">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C26">
+        <v>0.54</v>
+      </c>
+      <c r="D26">
+        <v>18.5</v>
+      </c>
+      <c r="E26">
+        <v>30.8</v>
+      </c>
+      <c r="F26">
+        <v>0.38</v>
+      </c>
+      <c r="G26">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <f>DATEVALUE(Sheet2!C28)</f>
         <v>44625</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="B27">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C27">
+        <v>0.45</v>
+      </c>
+      <c r="D27">
+        <v>17.2</v>
+      </c>
+      <c r="E27">
+        <v>16.7</v>
+      </c>
+      <c r="F27">
+        <v>0.24</v>
+      </c>
+      <c r="G27">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <f>DATEVALUE(Sheet2!C30)</f>
         <v>44629</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="B28">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="C28">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D28">
+        <v>12.1</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G28">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <f>DATEVALUE(Sheet2!C31)</f>
         <v>44631</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="B29">
+        <v>68.3</v>
+      </c>
+      <c r="C29">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D29">
+        <v>13.9</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
+      </c>
+      <c r="G29">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <f>DATEVALUE(Sheet2!C32)</f>
         <v>44632</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="B30">
+        <v>63.3</v>
+      </c>
+      <c r="C30">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D30">
+        <v>17.8</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G30">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <f>DATEVALUE(Sheet2!C34)</f>
         <v>44637</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="B31">
+        <v>68.7</v>
+      </c>
+      <c r="C31">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D31">
+        <v>18.5</v>
+      </c>
+      <c r="E31">
+        <v>18.5</v>
+      </c>
+      <c r="F31">
+        <v>0.316</v>
+      </c>
+      <c r="G31">
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <f>DATEVALUE(Sheet2!C35)</f>
         <v>44639</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="B32">
+        <v>65.3</v>
+      </c>
+      <c r="C32">
+        <v>0.443</v>
+      </c>
+      <c r="D32">
+        <v>11.9</v>
+      </c>
+      <c r="E32">
+        <v>38.5</v>
+      </c>
+      <c r="F32">
+        <v>0.434</v>
+      </c>
+      <c r="G32">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <f>DATEVALUE(Sheet2!C36)</f>
         <v>44645</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <f>DATEVALUE(Sheet2!C37)</f>
-        <v>44647</v>
+      <c r="B33">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="C33">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D33">
+        <v>11.2</v>
+      </c>
+      <c r="E33">
+        <v>18.8</v>
+      </c>
+      <c r="F33">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G33">
+        <v>101.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1168,14 +1635,14 @@
       <selection activeCell="C3" sqref="C3:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1188,10 +1655,10 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1217,14 +1684,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="3" t="str">
         <f>RIGHT(B3,LEN(B3)-5)</f>
         <v>Nov 13, 2021</v>
       </c>
@@ -1237,10 +1704,10 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1266,14 +1733,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="3" t="str">
         <f t="shared" ref="C4:C37" si="0">RIGHT(B4,LEN(B4)-5)</f>
         <v>Nov 23, 2021</v>
       </c>
@@ -1284,10 +1751,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1313,14 +1780,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Nov 27, 2021</v>
       </c>
@@ -1333,10 +1800,10 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1362,14 +1829,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Dec 3, 2021</v>
       </c>
@@ -1382,10 +1849,10 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1411,14 +1878,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Dec 5, 2021</v>
       </c>
@@ -1429,10 +1896,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1458,14 +1925,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Dec 8, 2021</v>
       </c>
@@ -1476,10 +1943,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1505,14 +1972,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Dec 12, 2021</v>
       </c>
@@ -1550,14 +2017,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Dec 18, 2021</v>
       </c>
@@ -1570,10 +2037,10 @@
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1599,14 +2066,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Jan 14, 2022</v>
       </c>
@@ -1617,10 +2084,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1646,14 +2113,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Jan 16, 2022</v>
       </c>
@@ -1666,10 +2133,10 @@
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1695,14 +2162,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Jan 18, 2022</v>
       </c>
@@ -1713,10 +2180,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1742,14 +2209,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Jan 21, 2022</v>
       </c>
@@ -1762,10 +2229,10 @@
       <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1793,14 +2260,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Jan 23, 2022</v>
       </c>
@@ -1813,10 +2280,10 @@
       <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1842,14 +2309,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Jan 26, 2022</v>
       </c>
@@ -1862,10 +2329,10 @@
       <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1891,14 +2358,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Jan 28, 2022</v>
       </c>
@@ -1909,10 +2376,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1938,14 +2405,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Jan 30, 2022</v>
       </c>
@@ -1958,10 +2425,10 @@
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1987,14 +2454,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Feb 4, 2022</v>
       </c>
@@ -2005,10 +2472,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -2034,14 +2501,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Feb 6, 2022</v>
       </c>
@@ -2052,10 +2519,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2081,14 +2548,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Feb 11, 2022</v>
       </c>
@@ -2099,10 +2566,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2128,14 +2595,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Feb 15, 2022</v>
       </c>
@@ -2146,10 +2613,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2175,14 +2642,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Feb 18, 2022</v>
       </c>
@@ -2195,10 +2662,10 @@
       <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -2224,14 +2691,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Feb 20, 2022</v>
       </c>
@@ -2244,10 +2711,10 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2273,14 +2740,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Feb 25, 2022</v>
       </c>
@@ -2293,10 +2760,10 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2322,14 +2789,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Feb 27, 2022</v>
       </c>
@@ -2340,10 +2807,10 @@
         <v>8</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -2369,14 +2836,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="C27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mar 1, 2022</v>
       </c>
@@ -2389,10 +2856,10 @@
       <c r="F27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2418,14 +2885,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="5" t="str">
+      <c r="C28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mar 5, 2022</v>
       </c>
@@ -2436,10 +2903,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -2465,61 +2932,61 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="5" t="e">
+      <c r="C29" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="5" t="str">
+      <c r="C30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mar 9, 2022</v>
       </c>
@@ -2532,10 +2999,10 @@
       <c r="F30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -2561,14 +3028,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="5" t="str">
+      <c r="C31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mar 11, 2022</v>
       </c>
@@ -2581,10 +3048,10 @@
       <c r="F31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -2610,14 +3077,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mar 12, 2022</v>
       </c>
@@ -2630,10 +3097,10 @@
       <c r="F32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -2659,61 +3126,61 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="5" t="e">
+      <c r="C33" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6" t="s">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="5" t="str">
+      <c r="C34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mar 17, 2022</v>
       </c>
@@ -2726,10 +3193,10 @@
       <c r="F34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="3" t="s">
         <v>113</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -2757,14 +3224,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="5" t="str">
+      <c r="C35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mar 19, 2022</v>
       </c>
@@ -2777,10 +3244,10 @@
       <c r="F35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="3" t="s">
         <v>119</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -2806,14 +3273,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="5" t="str">
+      <c r="C36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mar 25, 2022</v>
       </c>
@@ -2826,10 +3293,10 @@
       <c r="F36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="3" t="s">
         <v>124</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -2855,14 +3322,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="5" t="str">
+      <c r="C37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mar 27, 2022</v>
       </c>
@@ -2875,10 +3342,10 @@
       <c r="F37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="3" t="s">
         <v>130</v>
       </c>
       <c r="I37" s="1"/>
